--- a/cf-chapter-example.xlsx
+++ b/cf-chapter-example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="20505" windowHeight="12690"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="20505" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="cf-chapter-example" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>P1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Cosine similarity</t>
+  </si>
+  <si>
+    <t>||Ui|| squared</t>
   </si>
 </sst>
 </file>
@@ -862,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:R15"/>
+  <dimension ref="C1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,30 +1152,33 @@
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I14" si="3">PEARSON(D13:H13,D$13:H$13)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:H14" si="3">D4-$Q4</f>
+        <f t="shared" ref="D14:H14" si="4">D4-$Q4</f>
         <v>1</v>
       </c>
       <c r="F14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14:I15" si="4">PEARSON(D14:H14,D$13:H$13)</f>
         <v>0.89104211121363075</v>
       </c>
     </row>
@@ -1194,8 +1203,163 @@
         <v>-0.25</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="I14:I15" si="6">PEARSON(D15:H15,D$13:H$13)</f>
         <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>-0.25</v>
+      </c>
+      <c r="E20">
+        <v>1.75</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-2.25</v>
+      </c>
+      <c r="I20">
+        <v>3.25</v>
+      </c>
+      <c r="J20" s="1">
+        <f>SUMPRODUCT(D20:H20,D$21:H$21)/SQRT(K20*K$21)</f>
+        <v>0.23946037217307969</v>
+      </c>
+      <c r="K20">
+        <f>SUMSQ(D20:H20)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-0.5</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>-1.5</v>
+      </c>
+      <c r="H21">
+        <v>-0.5</v>
+      </c>
+      <c r="I21">
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="1">
+        <f>SUMPRODUCT(D21:H21,D$21:H$21)/SQRT(K21*K$21)</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>SUMSQ(D21:H21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <f>SUMPRODUCT(D22:H22,D$21:H$21)/SQRT(K22*K$21)</f>
+        <v>0.74845519918374881</v>
+      </c>
+      <c r="K22">
+        <f>SUMSQ(D22:H22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>-1.25</v>
+      </c>
+      <c r="E23">
+        <v>1.75</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>-0.25</v>
+      </c>
+      <c r="H23">
+        <v>-0.25</v>
+      </c>
+      <c r="I23">
+        <v>3.25</v>
+      </c>
+      <c r="J23" s="1">
+        <f>SUMPRODUCT(D23:H23,D$21:H$21)/SQRT(K23*K$21)</f>
+        <v>-5.7353933467640443E-2</v>
+      </c>
+      <c r="K23">
+        <f>SUMSQ(D23:H23)</f>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
